--- a/public/static/agriculturedata/3.棉花总产量.xlsx
+++ b/public/static/agriculturedata/3.棉花总产量.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>区域</t>
-  </si>
-  <si>
     <t>北京</t>
   </si>
   <si>
@@ -123,6 +120,10 @@
   </si>
   <si>
     <t>2012年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,9 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -500,22 +499,22 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>460</v>
@@ -530,7 +529,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>62710</v>
@@ -545,7 +544,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>569500</v>
@@ -560,7 +559,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>69311</v>
@@ -575,7 +574,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>1122</v>
@@ -590,7 +589,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>655</v>
@@ -605,7 +604,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>5151</v>
@@ -620,7 +619,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -635,7 +634,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>3518</v>
@@ -650,7 +649,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>260827</v>
@@ -665,7 +664,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>29373</v>
@@ -680,7 +679,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>316000</v>
@@ -695,7 +694,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>60</v>
@@ -710,7 +709,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>130773</v>
@@ -725,7 +724,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>724133</v>
@@ -740,7 +739,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>447206</v>
@@ -755,7 +754,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>471800</v>
@@ -770,7 +769,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>227000</v>
@@ -785,7 +784,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -800,7 +799,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>2070</v>
@@ -815,7 +814,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -830,7 +829,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>93</v>
@@ -845,7 +844,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
         <v>14150</v>
@@ -860,7 +859,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>996</v>
@@ -875,7 +874,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>392</v>
@@ -890,7 +889,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -905,7 +904,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3">
         <v>69240</v>
@@ -920,7 +919,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3">
         <v>75592</v>
@@ -935,7 +934,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -950,7 +949,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -965,7 +964,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3">
         <v>2479000</v>
